--- a/src/LicenseExpDate.xlsx
+++ b/src/LicenseExpDate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359A9B8-31B8-4F3F-9815-C97587EF00B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF92DE-E92F-4558-87CD-6B306D0C7E54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Application name</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>Dev c++</t>
+  </si>
+  <si>
+    <t>Teststand</t>
+  </si>
+  <si>
+    <t>Labview</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Procom</t>
+  </si>
+  <si>
+    <t>LDRA</t>
+  </si>
+  <si>
+    <t>RTRT</t>
   </si>
 </sst>
 </file>
@@ -45,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,13 +411,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,43 +468,67 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43692</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43691</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43701</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43697</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43707</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43738</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
